--- a/A-开发相关文档素材/3.测试用例/参与人/编辑参与人 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/参与人/编辑参与人 - 测试用例.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>用例接口</t>
   </si>
@@ -145,6 +145,16 @@
 后台抛错：权限标签不能删除</t>
   </si>
   <si>
+    <t>群成员联系方式不为11位或不为数字</t>
+  </si>
+  <si>
+    <t>群成员联系方式不为11位或不为数字，其它入参正常传参，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>返回错误：修改失败
+后台抛错：群成员联系方式格式错误</t>
+  </si>
+  <si>
     <t>入参特殊字符异常</t>
   </si>
   <si>
@@ -156,6 +166,16 @@
   <si>
     <t>返回错误：修改失败
 后台抛错：群成员名称包含关键字</t>
+  </si>
+  <si>
+    <t>群组名称不能包含特殊字符</t>
+  </si>
+  <si>
+    <t>groupName包含特殊字符，其他入参正常传参，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>返回错误：修改失败
+后台抛错：群组名称包含关键字</t>
   </si>
   <si>
     <t>入参项目异常</t>
@@ -300,13 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,13 +338,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,13 +397,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -409,6 +408,27 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,6 +497,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,150 +671,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -652,12 +678,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,16 +897,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,112 +918,112 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1013,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1056,9 +1076,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,16 +1085,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1548,10 +1577,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1578,7 +1607,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="28"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6"/>
@@ -1593,7 +1622,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="28"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
@@ -1626,7 +1655,7 @@
       <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1714,11 +1743,11 @@
       <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" ht="24" spans="1:11">
       <c r="A8" s="9">
@@ -1735,11 +1764,11 @@
       <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" ht="24" spans="1:11">
       <c r="A9" s="9">
@@ -1756,11 +1785,11 @@
       <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" ht="24" spans="1:11">
       <c r="A10" s="9">
@@ -1779,7 +1808,7 @@
       <c r="F10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -1800,7 +1829,7 @@
       <c r="F11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1811,7 +1840,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -1823,7 +1852,7 @@
       <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -1833,8 +1862,8 @@
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="11" t="s">
         <v>33</v>
       </c>
@@ -1844,7 +1873,7 @@
       <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -1854,7 +1883,7 @@
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -1875,178 +1904,218 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" ht="30" customHeight="1" spans="1:11">
-      <c r="A15" s="19">
+    <row r="15" ht="33" customHeight="1" spans="1:11">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:11">
+      <c r="A16" s="21">
+        <v>13</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:11">
-      <c r="A16" s="19">
-        <v>13</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" ht="21" customHeight="1" spans="1:11">
+    <row r="17" ht="30" customHeight="1" spans="1:11">
       <c r="A17" s="21">
         <v>14</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="F17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="G17" s="24"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" ht="26" customHeight="1" spans="1:11">
+    <row r="18" ht="18" customHeight="1" spans="1:11">
       <c r="A18" s="21">
         <v>15</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" ht="26" customHeight="1" spans="1:11">
-      <c r="A19" s="21">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" ht="21" customHeight="1" spans="1:11">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" ht="26" customHeight="1" spans="1:11">
-      <c r="A20" s="21">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" ht="25" customHeight="1" spans="1:11">
-      <c r="A21" s="19">
+        <v>52</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" ht="26" customHeight="1" spans="1:11">
+      <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="25" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26" t="s">
+      <c r="D21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
+      <c r="E21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" ht="26" customHeight="1" spans="1:11">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" ht="25" customHeight="1" spans="1:11">
+      <c r="A23" s="21">
+        <v>20</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1"/>
@@ -2069,13 +2138,21 @@
     <row r="30" spans="1:1">
       <c r="A30" s="1"/>
     </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C11"/>
@@ -2085,7 +2162,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G7 G8 G9">
       <formula1>测试结果</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23">
       <formula1>类型</formula1>
     </dataValidation>
   </dataValidations>
@@ -2107,7 +2184,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -2115,10 +2192,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2126,15 +2203,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2164,31 +2241,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/A-开发相关文档素材/3.测试用例/参与人/编辑参与人 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/参与人/编辑参与人 - 测试用例.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>用例接口</t>
   </si>
@@ -153,6 +153,21 @@
   <si>
     <t>返回错误：修改失败
 后台抛错：群成员联系方式格式错误</t>
+  </si>
+  <si>
+    <t>userId不为int类型</t>
+  </si>
+  <si>
+    <t>userId不为int类型，其它入参正常传参，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>返回错误:请求参数错误，请检查后重新输入后台抛错:请求参数错误，请检查后重新输入</t>
+  </si>
+  <si>
+    <t>groupId不为int类型</t>
+  </si>
+  <si>
+    <t>groupId不为int类型，其它入参正常传参，查看结果是否正确</t>
   </si>
   <si>
     <t>入参特殊字符异常</t>
@@ -276,10 +291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -320,6 +335,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +360,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,6 +426,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -408,27 +444,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,192 +512,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -777,6 +792,24 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -885,10 +918,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,16 +930,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -918,112 +951,112 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1033,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,33 +1124,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1132,6 +1159,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1577,10 +1613,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1607,7 +1643,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="31"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6"/>
@@ -1622,7 +1658,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
@@ -1655,7 +1691,7 @@
       <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="30" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1924,75 +1960,69 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" ht="30" customHeight="1" spans="1:11">
-      <c r="A16" s="21">
+    <row r="16" ht="33" customHeight="1" spans="1:11">
+      <c r="A16" s="9"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" ht="33" customHeight="1" spans="1:11">
+      <c r="A17" s="9"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:11">
+      <c r="A18" s="21">
         <v>13</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="B18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:11">
-      <c r="A17" s="21">
-        <v>14</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:11">
-      <c r="A18" s="21">
-        <v>15</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="11"/>
@@ -2000,93 +2030,95 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" ht="21" customHeight="1" spans="1:11">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>53</v>
-      </c>
+    <row r="19" ht="30" customHeight="1" spans="1:11">
+      <c r="A19" s="21">
+        <v>14</v>
+      </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="G19" s="22"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" ht="26" customHeight="1" spans="1:11">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="18" t="s">
+    <row r="20" ht="18" customHeight="1" spans="1:11">
+      <c r="A20" s="21">
+        <v>15</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" ht="26" customHeight="1" spans="1:11">
+      <c r="G20" s="14"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" ht="21" customHeight="1" spans="1:11">
       <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>58</v>
       </c>
+      <c r="C21" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="D21" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:11">
       <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="24"/>
       <c r="C22" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -2094,34 +2126,74 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" ht="25" customHeight="1" spans="1:11">
-      <c r="A23" s="21">
+    <row r="23" ht="26" customHeight="1" spans="1:11">
+      <c r="A23" s="9">
+        <v>18</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" ht="26" customHeight="1" spans="1:11">
+      <c r="A24" s="9">
+        <v>19</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" ht="25" customHeight="1" spans="1:11">
+      <c r="A25" s="21">
         <v>20</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
+      <c r="B25" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1"/>
@@ -2143,6 +2215,12 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2150,9 +2228,9 @@
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C11"/>
@@ -2162,7 +2240,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G7 G8 G9">
       <formula1>测试结果</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25">
       <formula1>类型</formula1>
     </dataValidation>
   </dataValidations>
@@ -2184,7 +2262,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -2192,10 +2270,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2203,15 +2281,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2241,31 +2319,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9">
